--- a/kvision/ksample/mytable/docmind/015_7dc01.xlsx
+++ b/kvision/ksample/mytable/docmind/015_7dc01.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -173,11 +173,69 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +407,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,140 +795,140 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56" t="inlineStr">
+      <c r="A1" s="59" t="inlineStr">
         <is>
           <t>门诊检验报告单</t>
         </is>
       </c>
-      <c r="B1" s="57" t="n"/>
-      <c r="C1" s="57" t="n"/>
-      <c r="D1" s="57" t="n"/>
+      <c r="B1" s="60" t="n"/>
+      <c r="C1" s="60" t="n"/>
+      <c r="D1" s="60" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="56" t="inlineStr">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>**血常规(5分类)</t>
         </is>
       </c>
-      <c r="B2" s="57" t="n"/>
-      <c r="C2" s="57" t="n"/>
-      <c r="D2" s="57" t="n"/>
+      <c r="B2" s="60" t="n"/>
+      <c r="C2" s="60" t="n"/>
+      <c r="D2" s="60" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="inlineStr">
+      <c r="A3" s="59" t="inlineStr">
         <is>
           <t>标本状态：正常                临床诊断：1.慢性扁桃体炎</t>
         </is>
       </c>
-      <c r="B3" s="57" t="n"/>
-      <c r="C3" s="57" t="n"/>
-      <c r="D3" s="57" t="n"/>
+      <c r="B3" s="60" t="n"/>
+      <c r="C3" s="60" t="n"/>
+      <c r="D3" s="60" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="56" t="inlineStr">
+      <c r="A4" s="59" t="inlineStr">
         <is>
           <t>检验项目</t>
         </is>
       </c>
-      <c r="B4" s="58" t="inlineStr">
+      <c r="B4" s="61" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C4" s="58" t="inlineStr">
+      <c r="C4" s="61" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="D4" s="58" t="inlineStr">
+      <c r="D4" s="61" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="56" t="inlineStr">
+      <c r="A5" s="59" t="inlineStr">
         <is>
           <t>中性细胞百分率(NEL%)</t>
         </is>
       </c>
-      <c r="B5" s="58" t="inlineStr">
+      <c r="B5" s="61" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C5" s="58" t="inlineStr">
+      <c r="C5" s="61" t="inlineStr">
         <is>
           <t>40-75</t>
         </is>
       </c>
-      <c r="D5" s="58" t="inlineStr">
+      <c r="D5" s="61" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="inlineStr">
+      <c r="A6" s="59" t="inlineStr">
         <is>
           <t>淋巴细胞百分率(LYM%)</t>
         </is>
       </c>
-      <c r="B6" s="58" t="inlineStr">
+      <c r="B6" s="61" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="C6" s="58" t="inlineStr">
+      <c r="C6" s="61" t="inlineStr">
         <is>
           <t>20-50</t>
         </is>
       </c>
-      <c r="D6" s="58" t="inlineStr">
+      <c r="D6" s="61" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="inlineStr">
+      <c r="A7" s="59" t="inlineStr">
         <is>
           <t>单核细胞百分率(MONO%)</t>
         </is>
       </c>
-      <c r="B7" s="58" t="inlineStr">
+      <c r="B7" s="61" t="inlineStr">
         <is>
           <t>7.1</t>
         </is>
       </c>
-      <c r="C7" s="58" t="inlineStr">
+      <c r="C7" s="61" t="inlineStr">
         <is>
           <t>3.0-10.0</t>
         </is>
       </c>
-      <c r="D7" s="58" t="inlineStr">
+      <c r="D7" s="61" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="inlineStr">
+      <c r="A8" s="59" t="inlineStr">
         <is>
           <t>红细胞计数(RBC)</t>
         </is>
       </c>
-      <c r="B8" s="58" t="inlineStr">
+      <c r="B8" s="61" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="C8" s="58" t="inlineStr">
+      <c r="C8" s="61" t="inlineStr">
         <is>
           <t>4.3-5.8</t>
         </is>
       </c>
-      <c r="D8" s="58" t="inlineStr">
+      <c r="D8" s="61" t="inlineStr">
         <is>
           <t>%</t>
         </is>

--- a/kvision/ksample/mytable/docmind/015_7dc01.xlsx
+++ b/kvision/ksample/mytable/docmind/015_7dc01.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -229,13 +229,71 @@
       </top>
       <bottom style="thick">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,6 +472,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,140 +860,140 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="inlineStr">
+      <c r="A1" s="62" t="inlineStr">
         <is>
           <t>门诊检验报告单</t>
         </is>
       </c>
-      <c r="B1" s="60" t="n"/>
-      <c r="C1" s="60" t="n"/>
-      <c r="D1" s="60" t="n"/>
+      <c r="B1" s="63" t="n"/>
+      <c r="C1" s="63" t="n"/>
+      <c r="D1" s="63" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="59" t="inlineStr">
+      <c r="A2" s="62" t="inlineStr">
         <is>
           <t>**血常规(5分类)</t>
         </is>
       </c>
-      <c r="B2" s="60" t="n"/>
-      <c r="C2" s="60" t="n"/>
-      <c r="D2" s="60" t="n"/>
+      <c r="B2" s="63" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="D2" s="63" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="59" t="inlineStr">
+      <c r="A3" s="62" t="inlineStr">
         <is>
           <t>标本状态：正常                临床诊断：1.慢性扁桃体炎</t>
         </is>
       </c>
-      <c r="B3" s="60" t="n"/>
-      <c r="C3" s="60" t="n"/>
-      <c r="D3" s="60" t="n"/>
+      <c r="B3" s="63" t="n"/>
+      <c r="C3" s="63" t="n"/>
+      <c r="D3" s="63" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="59" t="inlineStr">
+      <c r="A4" s="62" t="inlineStr">
         <is>
           <t>检验项目</t>
         </is>
       </c>
-      <c r="B4" s="61" t="inlineStr">
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C4" s="61" t="inlineStr">
+      <c r="C4" s="64" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="D4" s="61" t="inlineStr">
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59" t="inlineStr">
+      <c r="A5" s="62" t="inlineStr">
         <is>
           <t>中性细胞百分率(NEL%)</t>
         </is>
       </c>
-      <c r="B5" s="61" t="inlineStr">
+      <c r="B5" s="64" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C5" s="61" t="inlineStr">
+      <c r="C5" s="64" t="inlineStr">
         <is>
           <t>40-75</t>
         </is>
       </c>
-      <c r="D5" s="61" t="inlineStr">
+      <c r="D5" s="64" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="inlineStr">
+      <c r="A6" s="62" t="inlineStr">
         <is>
           <t>淋巴细胞百分率(LYM%)</t>
         </is>
       </c>
-      <c r="B6" s="61" t="inlineStr">
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="C6" s="61" t="inlineStr">
+      <c r="C6" s="64" t="inlineStr">
         <is>
           <t>20-50</t>
         </is>
       </c>
-      <c r="D6" s="61" t="inlineStr">
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59" t="inlineStr">
+      <c r="A7" s="62" t="inlineStr">
         <is>
           <t>单核细胞百分率(MONO%)</t>
         </is>
       </c>
-      <c r="B7" s="61" t="inlineStr">
+      <c r="B7" s="64" t="inlineStr">
         <is>
           <t>7.1</t>
         </is>
       </c>
-      <c r="C7" s="61" t="inlineStr">
+      <c r="C7" s="64" t="inlineStr">
         <is>
           <t>3.0-10.0</t>
         </is>
       </c>
-      <c r="D7" s="61" t="inlineStr">
+      <c r="D7" s="64" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="inlineStr">
+      <c r="A8" s="62" t="inlineStr">
         <is>
           <t>红细胞计数(RBC)</t>
         </is>
       </c>
-      <c r="B8" s="61" t="inlineStr">
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="C8" s="61" t="inlineStr">
+      <c r="C8" s="64" t="inlineStr">
         <is>
           <t>4.3-5.8</t>
         </is>
       </c>
-      <c r="D8" s="61" t="inlineStr">
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>%</t>
         </is>
